--- a/logs/Territory2_log.xlsx
+++ b/logs/Territory2_log.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="791">
   <si>
     <t>attributes</t>
   </si>
@@ -1010,813 +1010,804 @@
     <t>T1424302006</t>
   </si>
   <si>
-    <t>2025-07-31</t>
-  </si>
-  <si>
     <t>0051S00000AGjMAQA1</t>
   </si>
   <si>
-    <t>2025-07-22</t>
+    <t>1424302006</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TgWAI"}</t>
+  </si>
+  <si>
+    <t>CL3 CANA JATAI</t>
+  </si>
+  <si>
+    <t>T1424402012</t>
+  </si>
+  <si>
+    <t>0051S00000ATpOaQAL</t>
+  </si>
+  <si>
+    <t>1424402008</t>
+  </si>
+  <si>
+    <t>0MIbL00000002U3WAI</t>
+  </si>
+  <si>
+    <t>CL3 CANA DOURADOS</t>
+  </si>
+  <si>
+    <t>00537000000tl75AAA</t>
+  </si>
+  <si>
+    <t>1424402012</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002ThWAI"}</t>
+  </si>
+  <si>
+    <t>SL1 PALOTINA</t>
+  </si>
+  <si>
+    <t>T1424101003</t>
+  </si>
+  <si>
+    <t>0051S00000ATpQHQA1</t>
+  </si>
+  <si>
+    <t>005Kb00000BAN0LIAX</t>
+  </si>
+  <si>
+    <t>1424101003</t>
+  </si>
+  <si>
+    <t>Usuário não encontrado ou inativo!</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TiWAI"}</t>
+  </si>
+  <si>
+    <t>CE3 BARREIRAS</t>
+  </si>
+  <si>
+    <t>T1424201006</t>
+  </si>
+  <si>
+    <t>0051S00000AZnxhQAD</t>
+  </si>
+  <si>
+    <t>1424201006</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TjWAI"}</t>
+  </si>
+  <si>
+    <t>CL1 ASSIS</t>
+  </si>
+  <si>
+    <t>T1424203012</t>
+  </si>
+  <si>
+    <t>0051S00000Aa9hCQAR</t>
+  </si>
+  <si>
+    <t>1424203012</t>
+  </si>
+  <si>
+    <t>Insert failed. First exception on row 0; first error: FIELD_CUSTOM_VALIDATION_EXCEPTION, Erro na Base de Dados: Um usuário só pode ser principal de um território. (MARINA BALAN JUNQUETTI é principal no território CL1 VILA VELHA): []</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TkWAI"}</t>
+  </si>
+  <si>
+    <t>CL4 FORMOSA</t>
+  </si>
+  <si>
+    <t>T1424204003</t>
+  </si>
+  <si>
+    <t>0051S00000AaUiLQAV</t>
+  </si>
+  <si>
+    <t>1424204003</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TlWAI"}</t>
+  </si>
+  <si>
+    <t>SL1 DOURADOS</t>
+  </si>
+  <si>
+    <t>T1424101005</t>
+  </si>
+  <si>
+    <t>0051S00000AaUiaQAF</t>
+  </si>
+  <si>
+    <t>1424101005</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TmWAI"}</t>
+  </si>
+  <si>
+    <t>CL5 JATAI</t>
+  </si>
+  <si>
+    <t>T1424204005</t>
+  </si>
+  <si>
+    <t>0051S00000AjvTOQAZ</t>
+  </si>
+  <si>
+    <t>1424204005</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TnWAI"}</t>
+  </si>
+  <si>
+    <t>CL1 LIMEIRA</t>
+  </si>
+  <si>
+    <t>T1424501002</t>
+  </si>
+  <si>
+    <t>0051S00000B93sbQAB</t>
+  </si>
+  <si>
+    <t>1424401010</t>
+  </si>
+  <si>
+    <t>0MIbL00000002U6WAI</t>
+  </si>
+  <si>
+    <t>CL1 PIRACICABA</t>
+  </si>
+  <si>
+    <t>00537000000tl7RAAQ</t>
+  </si>
+  <si>
+    <t>1424501002</t>
+  </si>
+  <si>
+    <t>Insert failed. First exception on row 0; first error: FIELD_CUSTOM_VALIDATION_EXCEPTION, Erro na Base de Dados: Um usuário só pode ser principal de um território. (JOAO ARTUR BURIN é principal no território SL3 SANTO ANGELO): []</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002ToWAI"}</t>
+  </si>
+  <si>
+    <t>CE3 ARAGUAINA</t>
+  </si>
+  <si>
+    <t>T1424201011</t>
+  </si>
+  <si>
+    <t>0051S00000AtCadQAF</t>
+  </si>
+  <si>
+    <t>1424201011</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TpWAI"}</t>
+  </si>
+  <si>
+    <t>CL3 CANA PRES PRUDEN</t>
+  </si>
+  <si>
+    <t>T1424401001</t>
+  </si>
+  <si>
+    <t>00537000002nUvxAAE</t>
+  </si>
+  <si>
+    <t>1424401002</t>
+  </si>
+  <si>
+    <t>0MIbL00000002UQWAY</t>
+  </si>
+  <si>
+    <t>CL3 ITURAMA</t>
+  </si>
+  <si>
+    <t>005bL0000000WG1QAM</t>
+  </si>
+  <si>
+    <t>1424401001</t>
+  </si>
+  <si>
+    <t>Insert failed. First exception on row 0; first error: FIELD_CUSTOM_VALIDATION_EXCEPTION, Erro na Base de Dados: Um usuário só pode ser principal de um território. (TERRITORIO VAGO 5 é principal no território SL2 PATO BRANCO): []</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TqWAI"}</t>
+  </si>
+  <si>
+    <t>CL4 UNAI</t>
+  </si>
+  <si>
+    <t>T1424203010</t>
+  </si>
+  <si>
+    <t>1424203010</t>
+  </si>
+  <si>
+    <t>Insert failed. First exception on row 0; first error: FIELD_CUSTOM_VALIDATION_EXCEPTION, Erro na Base de Dados: Um usuário só pode ser principal de um território. (GABRIEL MACHADO DE CASTRO é principal no território CL4 PARACATU): []</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TrWAI"}</t>
+  </si>
+  <si>
+    <t>SL2 MARINGA</t>
+  </si>
+  <si>
+    <t>T1424102004</t>
+  </si>
+  <si>
+    <t>0051S00000AtXDNQA3</t>
+  </si>
+  <si>
+    <t>1424102004</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TsWAI"}</t>
+  </si>
+  <si>
+    <t>CL5 CHAPADAO DO SUL</t>
+  </si>
+  <si>
+    <t>T1424302003</t>
+  </si>
+  <si>
+    <t>0051S00000AtgwwQAB</t>
+  </si>
+  <si>
+    <t>1424302003</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TtWAI"}</t>
+  </si>
+  <si>
+    <t>CE2 SORRISO</t>
+  </si>
+  <si>
+    <t>T1424303001</t>
+  </si>
+  <si>
+    <t>005bL0000077SwTQAU</t>
+  </si>
+  <si>
+    <t>1424303001</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TuWAI"}</t>
+  </si>
+  <si>
+    <t>SL1 S GABRIEL DOESTE</t>
+  </si>
+  <si>
+    <t>T1424302009</t>
+  </si>
+  <si>
+    <t>005bL0000077SwUQAU</t>
+  </si>
+  <si>
+    <t>0MIbL00000002TlWAI</t>
+  </si>
+  <si>
+    <t>1424302009</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TvWAI"}</t>
+  </si>
+  <si>
+    <t>0MIbL00000002NAWAY</t>
+  </si>
+  <si>
+    <t>T1421410000</t>
+  </si>
+  <si>
+    <t>0051S00000AtkPxQAJ</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TwWAI"}</t>
+  </si>
+  <si>
+    <t>SL2 PONTA GROSSA</t>
+  </si>
+  <si>
+    <t>T1424102001</t>
+  </si>
+  <si>
+    <t>005bL000004pVx7QAE</t>
+  </si>
+  <si>
+    <t>1424102001</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TxWAI"}</t>
+  </si>
+  <si>
+    <t>SL1 CASCAVEL</t>
+  </si>
+  <si>
+    <t>T1424101002</t>
+  </si>
+  <si>
+    <t>005bL000004tMwtQAE</t>
+  </si>
+  <si>
+    <t>1424101002</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TyWAI"}</t>
+  </si>
+  <si>
+    <t>KAM NORTE MT</t>
+  </si>
+  <si>
+    <t>T1424601004</t>
+  </si>
+  <si>
+    <t>0051S00000B9D7tQAF</t>
+  </si>
+  <si>
+    <t>1424601004</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TzWAI"}</t>
+  </si>
+  <si>
+    <t>KAM BALSAS</t>
+  </si>
+  <si>
+    <t>T1424601005</t>
+  </si>
+  <si>
+    <t>0051S00000B9K69QAF</t>
+  </si>
+  <si>
+    <t>1424601005</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U0WAI"}</t>
+  </si>
+  <si>
+    <t>SL3 LAJEADO</t>
+  </si>
+  <si>
+    <t>T1424103007</t>
+  </si>
+  <si>
+    <t>00537000000tl6yAAA</t>
+  </si>
+  <si>
+    <t>1424103007</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U1WAI"}</t>
+  </si>
+  <si>
+    <t>SL3 SANTO ANGELO</t>
+  </si>
+  <si>
+    <t>T1424103002</t>
+  </si>
+  <si>
+    <t>005bL0000081WqrQAE</t>
+  </si>
+  <si>
+    <t>1424103002</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U2WAI"}</t>
+  </si>
+  <si>
+    <t>CL4 UBERLANDIA</t>
+  </si>
+  <si>
+    <t>T1424203007</t>
+  </si>
+  <si>
+    <t>00537000000tl70AAA</t>
+  </si>
+  <si>
+    <t>1424203007</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U3WAI"}</t>
+  </si>
+  <si>
+    <t>T1424402008</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U4WAI"}</t>
+  </si>
+  <si>
+    <t>SL2 CAMBE</t>
+  </si>
+  <si>
+    <t>T1424102003</t>
+  </si>
+  <si>
+    <t>1424102003</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U5WAI"}</t>
+  </si>
+  <si>
+    <t>CL3 CANA MACEIO</t>
+  </si>
+  <si>
+    <t>T1424402005</t>
+  </si>
+  <si>
+    <t>00537000000tl7JAAQ</t>
+  </si>
+  <si>
+    <t>1424402005</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U6WAI"}</t>
+  </si>
+  <si>
+    <t>T1424401010</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U7WAI"}</t>
+  </si>
+  <si>
+    <t>CL1 MARILIA</t>
+  </si>
+  <si>
+    <t>T1424203003</t>
+  </si>
+  <si>
+    <t>00537000000tl7UAAQ</t>
+  </si>
+  <si>
+    <t>1424203003</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U8WAI"}</t>
+  </si>
+  <si>
+    <t>CE1 RONDONOPOLIS</t>
+  </si>
+  <si>
+    <t>T1424302002</t>
+  </si>
+  <si>
+    <t>00537000000tl7cAAA</t>
+  </si>
+  <si>
+    <t>1424302002</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U9WAI"}</t>
+  </si>
+  <si>
+    <t>CL3 CANA BATATAIS</t>
+  </si>
+  <si>
+    <t>T1424401005</t>
+  </si>
+  <si>
+    <t>00537000000tl7iAAA</t>
+  </si>
+  <si>
+    <t>1424401005</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UAWAY"}</t>
+  </si>
+  <si>
+    <t>CL1 RIBEIRAO PRETO</t>
+  </si>
+  <si>
+    <t>T1424203006</t>
+  </si>
+  <si>
+    <t>00537000000tl7qAAA</t>
+  </si>
+  <si>
+    <t>1424203006</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UBWAY"}</t>
+  </si>
+  <si>
+    <t>SL3 PASSO FUNDO</t>
+  </si>
+  <si>
+    <t>T1424103004</t>
+  </si>
+  <si>
+    <t>1424103004</t>
+  </si>
+  <si>
+    <t>Insert failed. First exception on row 0; first error: FIELD_CUSTOM_VALIDATION_EXCEPTION, Erro na Base de Dados: Um usuário só pode ser principal de um território. (RODRIGO DANTAS é principal no território CE3 BOM JESUS): []</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UCWAY"}</t>
+  </si>
+  <si>
+    <t>CL3 CANA PIRACICABA</t>
+  </si>
+  <si>
+    <t>T1424401006</t>
+  </si>
+  <si>
+    <t>00537000001aoBLAAY</t>
+  </si>
+  <si>
+    <t>1424401006</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UDWAY"}</t>
+  </si>
+  <si>
+    <t>CL3 CANA MARINGA</t>
+  </si>
+  <si>
+    <t>T1424402015</t>
+  </si>
+  <si>
+    <t>00537000002mpZvAAI</t>
+  </si>
+  <si>
+    <t>1424402015</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UEWAY"}</t>
+  </si>
+  <si>
+    <t>CL1 POUSO ALEGRE</t>
+  </si>
+  <si>
+    <t>T1424203004</t>
+  </si>
+  <si>
+    <t>0051S00000B93sWQAR</t>
+  </si>
+  <si>
+    <t>1424203004</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UFWAY"}</t>
+  </si>
+  <si>
+    <t>CL1 ARACATUBA</t>
+  </si>
+  <si>
+    <t>T1424402013</t>
+  </si>
+  <si>
+    <t>0051S000009eTXlQAM</t>
+  </si>
+  <si>
+    <t>1424402013</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UGWAY"}</t>
+  </si>
+  <si>
+    <t>CL1 PASSOS</t>
+  </si>
+  <si>
+    <t>T1424401004</t>
+  </si>
+  <si>
+    <t>005Kb00000BADPpIAP</t>
+  </si>
+  <si>
+    <t>1424401004</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UHWAY"}</t>
+  </si>
+  <si>
+    <t>NCT.SERV</t>
+  </si>
+  <si>
+    <t>0MIbL00000002NBWAY</t>
+  </si>
+  <si>
+    <t>T1421420000</t>
+  </si>
+  <si>
+    <t>005bL000005BkCqQAK</t>
+  </si>
+  <si>
+    <t>1421420000</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UIWAY"}</t>
+  </si>
+  <si>
+    <t>KAM LEM</t>
+  </si>
+  <si>
+    <t>T1424601002</t>
+  </si>
+  <si>
+    <t>005Kb00000BADPaIAP</t>
+  </si>
+  <si>
+    <t>1424601002</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UJWAY"}</t>
+  </si>
+  <si>
+    <t>CL1 ITAPETININGA</t>
+  </si>
+  <si>
+    <t>T1424203005</t>
+  </si>
+  <si>
+    <t>005Kb00000BAQCFIA5</t>
+  </si>
+  <si>
+    <t>1424203005</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UKWAY"}</t>
+  </si>
+  <si>
+    <t>SL2 FLORESTA</t>
+  </si>
+  <si>
+    <t>T1424302008</t>
+  </si>
+  <si>
+    <t>005Kb00000BAYRSIA5</t>
+  </si>
+  <si>
+    <t>1424302008</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002ULWAY"}</t>
+  </si>
+  <si>
+    <t>SL3 NAO ME TOQUE</t>
+  </si>
+  <si>
+    <t>T1424103009</t>
+  </si>
+  <si>
+    <t>005Kb00000BaFRrIAN</t>
+  </si>
+  <si>
+    <t>1424103009</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UMWAY"}</t>
+  </si>
+  <si>
+    <t>SL2 IRETAMA</t>
+  </si>
+  <si>
+    <t>T1424103005</t>
+  </si>
+  <si>
+    <t>005Kb00000BaV2AIAV</t>
+  </si>
+  <si>
+    <t>1424103005</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UNWAY"}</t>
+  </si>
+  <si>
+    <t>CL5 RIO VERDE</t>
+  </si>
+  <si>
+    <t>T1424204006</t>
+  </si>
+  <si>
+    <t>005bL000000068fQAA</t>
+  </si>
+  <si>
+    <t>1424204006</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UOWAY"}</t>
+  </si>
+  <si>
+    <t>CL5 GOIATUBA</t>
+  </si>
+  <si>
+    <t>T1424204004</t>
+  </si>
+  <si>
+    <t>005bL00000006AHQAY</t>
+  </si>
+  <si>
+    <t>1424204004</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UPWAY"}</t>
+  </si>
+  <si>
+    <t>CCL5 MINEIROS</t>
+  </si>
+  <si>
+    <t>T1424204007</t>
+  </si>
+  <si>
+    <t>005bL0000000WEPQA2</t>
+  </si>
+  <si>
+    <t>1424204007</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UQWAY"}</t>
+  </si>
+  <si>
+    <t>T1424401002</t>
+  </si>
+  <si>
+    <t>005Kb00000B0hyjIAB</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002URWAY"}</t>
+  </si>
+  <si>
+    <t>CE3 BALSAS</t>
+  </si>
+  <si>
+    <t>T1424201004</t>
+  </si>
+  <si>
+    <t>005bL0000000lN7QAI</t>
+  </si>
+  <si>
+    <t>1424201004</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002USWAY"}</t>
+  </si>
+  <si>
+    <t>SL3 CHAPECO</t>
+  </si>
+  <si>
+    <t>T1424103012</t>
+  </si>
+  <si>
+    <t>005bL0000000rqjQAA</t>
+  </si>
+  <si>
+    <t>1424103012</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UTWAY"}</t>
+  </si>
+  <si>
+    <t>CE3 LEM</t>
+  </si>
+  <si>
+    <t>T1424201001</t>
+  </si>
+  <si>
+    <t>005bL0000001R30QAE</t>
+  </si>
+  <si>
+    <t>1424201001</t>
+  </si>
+  <si>
+    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UUWAY"}</t>
+  </si>
+  <si>
+    <t>CE1 CAMPO VERDE</t>
+  </si>
+  <si>
+    <t>T1424303007</t>
+  </si>
+  <si>
+    <t>005bL0000001R6DQAU</t>
   </si>
   <si>
     <t>1424303007</t>
   </si>
   <si>
-    <t>0MIbL00000002UUWAY</t>
-  </si>
-  <si>
-    <t>CE1 CAMPO VERDE</t>
-  </si>
-  <si>
-    <t>005bL0000001R6DQAU</t>
-  </si>
-  <si>
-    <t>1424302006</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TgWAI"}</t>
-  </si>
-  <si>
-    <t>CL3 CANA JATAI</t>
-  </si>
-  <si>
-    <t>T1424402012</t>
-  </si>
-  <si>
-    <t>0051S00000ATpOaQAL</t>
-  </si>
-  <si>
-    <t>1424402008</t>
-  </si>
-  <si>
-    <t>0MIbL00000002U3WAI</t>
-  </si>
-  <si>
-    <t>CL3 CANA DOURADOS</t>
-  </si>
-  <si>
-    <t>00537000000tl75AAA</t>
-  </si>
-  <si>
-    <t>1424402012</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002ThWAI"}</t>
-  </si>
-  <si>
-    <t>SL1 PALOTINA</t>
-  </si>
-  <si>
-    <t>T1424101003</t>
-  </si>
-  <si>
-    <t>0051S00000ATpQHQA1</t>
-  </si>
-  <si>
-    <t>005Kb00000BAN0LIAX</t>
-  </si>
-  <si>
-    <t>1424101003</t>
-  </si>
-  <si>
-    <t>Usuário não encontrado ou inativo!</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TiWAI"}</t>
-  </si>
-  <si>
-    <t>CE3 BARREIRAS</t>
-  </si>
-  <si>
-    <t>T1424201006</t>
-  </si>
-  <si>
-    <t>0051S00000AZnxhQAD</t>
-  </si>
-  <si>
-    <t>1424201006</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TjWAI"}</t>
-  </si>
-  <si>
-    <t>CL1 ASSIS</t>
-  </si>
-  <si>
-    <t>T1424203012</t>
-  </si>
-  <si>
-    <t>0051S00000Aa9hCQAR</t>
-  </si>
-  <si>
-    <t>1424203012</t>
-  </si>
-  <si>
-    <t>Insert failed. First exception on row 0; first error: FIELD_CUSTOM_VALIDATION_EXCEPTION, Erro na Base de Dados: Um usuário só pode ser principal de um território. (MARINA BALAN JUNQUETTI é principal no território CL1 VILA VELHA): []</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TkWAI"}</t>
-  </si>
-  <si>
-    <t>CL4 FORMOSA</t>
-  </si>
-  <si>
-    <t>T1424204003</t>
-  </si>
-  <si>
-    <t>0051S00000AaUiLQAV</t>
-  </si>
-  <si>
-    <t>1424204003</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TlWAI"}</t>
-  </si>
-  <si>
-    <t>SL1 DOURADOS</t>
-  </si>
-  <si>
-    <t>T1424101005</t>
-  </si>
-  <si>
-    <t>0051S00000AaUiaQAF</t>
-  </si>
-  <si>
-    <t>1424101005</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TmWAI"}</t>
-  </si>
-  <si>
-    <t>CL5 JATAI</t>
-  </si>
-  <si>
-    <t>T1424204005</t>
-  </si>
-  <si>
-    <t>0051S00000AjvTOQAZ</t>
-  </si>
-  <si>
-    <t>1424204005</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TnWAI"}</t>
-  </si>
-  <si>
-    <t>CL1 LIMEIRA</t>
-  </si>
-  <si>
-    <t>T1424501002</t>
-  </si>
-  <si>
-    <t>0051S00000B93sbQAB</t>
-  </si>
-  <si>
-    <t>1424401010</t>
-  </si>
-  <si>
-    <t>0MIbL00000002U6WAI</t>
-  </si>
-  <si>
-    <t>CL1 PIRACICABA</t>
-  </si>
-  <si>
-    <t>00537000000tl7RAAQ</t>
-  </si>
-  <si>
-    <t>1424501002</t>
-  </si>
-  <si>
-    <t>Insert failed. First exception on row 0; first error: FIELD_CUSTOM_VALIDATION_EXCEPTION, Erro na Base de Dados: Um usuário só pode ser principal de um território. (JOAO ARTUR BURIN é principal no território SL3 SANTO ANGELO): []</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002ToWAI"}</t>
-  </si>
-  <si>
-    <t>CE3 ARAGUAINA</t>
-  </si>
-  <si>
-    <t>T1424201011</t>
-  </si>
-  <si>
-    <t>0051S00000AtCadQAF</t>
-  </si>
-  <si>
-    <t>1424201011</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TpWAI"}</t>
-  </si>
-  <si>
-    <t>CL3 CANA PRES PRUDEN</t>
-  </si>
-  <si>
-    <t>T1424401001</t>
-  </si>
-  <si>
-    <t>00537000002nUvxAAE</t>
-  </si>
-  <si>
-    <t>1424401002</t>
-  </si>
-  <si>
-    <t>0MIbL00000002UQWAY</t>
-  </si>
-  <si>
-    <t>CL3 ITURAMA</t>
-  </si>
-  <si>
-    <t>005bL0000000WG1QAM</t>
-  </si>
-  <si>
-    <t>1424401001</t>
-  </si>
-  <si>
-    <t>Insert failed. First exception on row 0; first error: FIELD_CUSTOM_VALIDATION_EXCEPTION, Erro na Base de Dados: Um usuário só pode ser principal de um território. (TERRITORIO VAGO 5 é principal no território SL2 PATO BRANCO): []</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TqWAI"}</t>
-  </si>
-  <si>
-    <t>CL4 UNAI</t>
-  </si>
-  <si>
-    <t>T1424203010</t>
-  </si>
-  <si>
-    <t>1424203010</t>
-  </si>
-  <si>
-    <t>Insert failed. First exception on row 0; first error: FIELD_CUSTOM_VALIDATION_EXCEPTION, Erro na Base de Dados: Um usuário só pode ser principal de um território. (GABRIEL MACHADO DE CASTRO é principal no território CL4 PARACATU): []</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TrWAI"}</t>
-  </si>
-  <si>
-    <t>SL2 MARINGA</t>
-  </si>
-  <si>
-    <t>T1424102004</t>
-  </si>
-  <si>
-    <t>0051S00000AtXDNQA3</t>
-  </si>
-  <si>
-    <t>1424102004</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TsWAI"}</t>
-  </si>
-  <si>
-    <t>CL5 CHAPADAO DO SUL</t>
-  </si>
-  <si>
-    <t>T1424302003</t>
-  </si>
-  <si>
-    <t>0051S00000AtgwwQAB</t>
-  </si>
-  <si>
-    <t>1424302003</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TtWAI"}</t>
-  </si>
-  <si>
-    <t>CE2 SORRISO</t>
-  </si>
-  <si>
-    <t>T1424303001</t>
-  </si>
-  <si>
-    <t>005bL0000077SwTQAU</t>
-  </si>
-  <si>
-    <t>1424303001</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TuWAI"}</t>
-  </si>
-  <si>
-    <t>SL1 S GABRIEL DOESTE</t>
-  </si>
-  <si>
-    <t>T1424302009</t>
-  </si>
-  <si>
-    <t>005bL0000077SwUQAU</t>
-  </si>
-  <si>
-    <t>0MIbL00000002TlWAI</t>
-  </si>
-  <si>
-    <t>1424302009</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TvWAI"}</t>
-  </si>
-  <si>
-    <t>0MIbL00000002NAWAY</t>
-  </si>
-  <si>
-    <t>T1421410000</t>
-  </si>
-  <si>
-    <t>0051S00000AtkPxQAJ</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TwWAI"}</t>
-  </si>
-  <si>
-    <t>SL2 PONTA GROSSA</t>
-  </si>
-  <si>
-    <t>T1424102001</t>
-  </si>
-  <si>
-    <t>005bL000004pVx7QAE</t>
-  </si>
-  <si>
-    <t>1424102001</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TxWAI"}</t>
-  </si>
-  <si>
-    <t>SL1 CASCAVEL</t>
-  </si>
-  <si>
-    <t>T1424101002</t>
-  </si>
-  <si>
-    <t>005bL000004tMwtQAE</t>
-  </si>
-  <si>
-    <t>1424101002</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TyWAI"}</t>
-  </si>
-  <si>
-    <t>KAM NORTE MT</t>
-  </si>
-  <si>
-    <t>T1424601004</t>
-  </si>
-  <si>
-    <t>0051S00000B9D7tQAF</t>
-  </si>
-  <si>
-    <t>1424601004</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002TzWAI"}</t>
-  </si>
-  <si>
-    <t>KAM BALSAS</t>
-  </si>
-  <si>
-    <t>T1424601005</t>
-  </si>
-  <si>
-    <t>0051S00000B9K69QAF</t>
-  </si>
-  <si>
-    <t>1424601005</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U0WAI"}</t>
-  </si>
-  <si>
-    <t>SL3 LAJEADO</t>
-  </si>
-  <si>
-    <t>T1424103007</t>
-  </si>
-  <si>
-    <t>00537000000tl6yAAA</t>
-  </si>
-  <si>
-    <t>1424103007</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U1WAI"}</t>
-  </si>
-  <si>
-    <t>SL3 SANTO ANGELO</t>
-  </si>
-  <si>
-    <t>T1424103002</t>
-  </si>
-  <si>
-    <t>005bL0000081WqrQAE</t>
-  </si>
-  <si>
-    <t>1424103002</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U2WAI"}</t>
-  </si>
-  <si>
-    <t>CL4 UBERLANDIA</t>
-  </si>
-  <si>
-    <t>T1424203007</t>
-  </si>
-  <si>
-    <t>00537000000tl70AAA</t>
-  </si>
-  <si>
-    <t>1424203007</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U3WAI"}</t>
-  </si>
-  <si>
-    <t>T1424402008</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U4WAI"}</t>
-  </si>
-  <si>
-    <t>SL2 CAMBE</t>
-  </si>
-  <si>
-    <t>T1424102003</t>
-  </si>
-  <si>
-    <t>1424102003</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U5WAI"}</t>
-  </si>
-  <si>
-    <t>CL3 CANA MACEIO</t>
-  </si>
-  <si>
-    <t>T1424402005</t>
-  </si>
-  <si>
-    <t>00537000000tl7JAAQ</t>
-  </si>
-  <si>
-    <t>1424402005</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U6WAI"}</t>
-  </si>
-  <si>
-    <t>T1424401010</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U7WAI"}</t>
-  </si>
-  <si>
-    <t>CL1 MARILIA</t>
-  </si>
-  <si>
-    <t>T1424203003</t>
-  </si>
-  <si>
-    <t>00537000000tl7UAAQ</t>
-  </si>
-  <si>
-    <t>1424203003</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U8WAI"}</t>
-  </si>
-  <si>
-    <t>CE1 RONDONOPOLIS</t>
-  </si>
-  <si>
-    <t>T1424302002</t>
-  </si>
-  <si>
-    <t>00537000000tl7cAAA</t>
-  </si>
-  <si>
-    <t>1424302002</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002U9WAI"}</t>
-  </si>
-  <si>
-    <t>CL3 CANA BATATAIS</t>
-  </si>
-  <si>
-    <t>T1424401005</t>
-  </si>
-  <si>
-    <t>00537000000tl7iAAA</t>
-  </si>
-  <si>
-    <t>1424401005</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UAWAY"}</t>
-  </si>
-  <si>
-    <t>CL1 RIBEIRAO PRETO</t>
-  </si>
-  <si>
-    <t>T1424203006</t>
-  </si>
-  <si>
-    <t>00537000000tl7qAAA</t>
-  </si>
-  <si>
-    <t>1424203006</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UBWAY"}</t>
-  </si>
-  <si>
-    <t>SL3 PASSO FUNDO</t>
-  </si>
-  <si>
-    <t>T1424103004</t>
-  </si>
-  <si>
-    <t>1424103004</t>
-  </si>
-  <si>
-    <t>Insert failed. First exception on row 0; first error: FIELD_CUSTOM_VALIDATION_EXCEPTION, Erro na Base de Dados: Um usuário só pode ser principal de um território. (RODRIGO DANTAS é principal no território CE3 BOM JESUS): []</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UCWAY"}</t>
-  </si>
-  <si>
-    <t>CL3 CANA PIRACICABA</t>
-  </si>
-  <si>
-    <t>T1424401006</t>
-  </si>
-  <si>
-    <t>00537000001aoBLAAY</t>
-  </si>
-  <si>
-    <t>1424401006</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UDWAY"}</t>
-  </si>
-  <si>
-    <t>CL3 CANA MARINGA</t>
-  </si>
-  <si>
-    <t>T1424402015</t>
-  </si>
-  <si>
-    <t>00537000002mpZvAAI</t>
-  </si>
-  <si>
-    <t>1424402015</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UEWAY"}</t>
-  </si>
-  <si>
-    <t>CL1 POUSO ALEGRE</t>
-  </si>
-  <si>
-    <t>T1424203004</t>
-  </si>
-  <si>
-    <t>0051S00000B93sWQAR</t>
-  </si>
-  <si>
-    <t>1424203004</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UFWAY"}</t>
-  </si>
-  <si>
-    <t>CL1 ARACATUBA</t>
-  </si>
-  <si>
-    <t>T1424402013</t>
-  </si>
-  <si>
-    <t>0051S000009eTXlQAM</t>
-  </si>
-  <si>
-    <t>1424402013</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UGWAY"}</t>
-  </si>
-  <si>
-    <t>CL1 PASSOS</t>
-  </si>
-  <si>
-    <t>T1424401004</t>
-  </si>
-  <si>
-    <t>005Kb00000BADPpIAP</t>
-  </si>
-  <si>
-    <t>1424401004</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UHWAY"}</t>
-  </si>
-  <si>
-    <t>NCT.SERV</t>
-  </si>
-  <si>
-    <t>0MIbL00000002NBWAY</t>
-  </si>
-  <si>
-    <t>T1421420000</t>
-  </si>
-  <si>
-    <t>005bL000005BkCqQAK</t>
-  </si>
-  <si>
-    <t>1421420000</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UIWAY"}</t>
-  </si>
-  <si>
-    <t>KAM LEM</t>
-  </si>
-  <si>
-    <t>T1424601002</t>
-  </si>
-  <si>
-    <t>005Kb00000BADPaIAP</t>
-  </si>
-  <si>
-    <t>1424601002</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UJWAY"}</t>
-  </si>
-  <si>
-    <t>CL1 ITAPETININGA</t>
-  </si>
-  <si>
-    <t>T1424203005</t>
-  </si>
-  <si>
-    <t>005Kb00000BAQCFIA5</t>
-  </si>
-  <si>
-    <t>1424203005</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UKWAY"}</t>
-  </si>
-  <si>
-    <t>SL2 FLORESTA</t>
-  </si>
-  <si>
-    <t>T1424302008</t>
-  </si>
-  <si>
-    <t>005Kb00000BAYRSIA5</t>
-  </si>
-  <si>
-    <t>1424302008</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002ULWAY"}</t>
-  </si>
-  <si>
-    <t>SL3 NAO ME TOQUE</t>
-  </si>
-  <si>
-    <t>T1424103009</t>
-  </si>
-  <si>
-    <t>005Kb00000BaFRrIAN</t>
-  </si>
-  <si>
-    <t>1424103009</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UMWAY"}</t>
-  </si>
-  <si>
-    <t>SL2 IRETAMA</t>
-  </si>
-  <si>
-    <t>T1424103005</t>
-  </si>
-  <si>
-    <t>005Kb00000BaV2AIAV</t>
-  </si>
-  <si>
-    <t>1424103005</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UNWAY"}</t>
-  </si>
-  <si>
-    <t>CL5 RIO VERDE</t>
-  </si>
-  <si>
-    <t>T1424204006</t>
-  </si>
-  <si>
-    <t>005bL000000068fQAA</t>
-  </si>
-  <si>
-    <t>1424204006</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UOWAY"}</t>
-  </si>
-  <si>
-    <t>CL5 GOIATUBA</t>
-  </si>
-  <si>
-    <t>T1424204004</t>
-  </si>
-  <si>
-    <t>005bL00000006AHQAY</t>
-  </si>
-  <si>
-    <t>1424204004</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UPWAY"}</t>
-  </si>
-  <si>
-    <t>CCL5 MINEIROS</t>
-  </si>
-  <si>
-    <t>T1424204007</t>
-  </si>
-  <si>
-    <t>005bL0000000WEPQA2</t>
-  </si>
-  <si>
-    <t>1424204007</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UQWAY"}</t>
-  </si>
-  <si>
-    <t>T1424401002</t>
-  </si>
-  <si>
-    <t>005Kb00000B0hyjIAB</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002URWAY"}</t>
-  </si>
-  <si>
-    <t>CE3 BALSAS</t>
-  </si>
-  <si>
-    <t>T1424201004</t>
-  </si>
-  <si>
-    <t>005bL0000000lN7QAI</t>
-  </si>
-  <si>
-    <t>1424201004</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002USWAY"}</t>
-  </si>
-  <si>
-    <t>SL3 CHAPECO</t>
-  </si>
-  <si>
-    <t>T1424103012</t>
-  </si>
-  <si>
-    <t>005bL0000000rqjQAA</t>
-  </si>
-  <si>
-    <t>1424103012</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UTWAY"}</t>
-  </si>
-  <si>
-    <t>CE3 LEM</t>
-  </si>
-  <si>
-    <t>T1424201001</t>
-  </si>
-  <si>
-    <t>005bL0000001R30QAE</t>
-  </si>
-  <si>
-    <t>1424201001</t>
-  </si>
-  <si>
-    <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UUWAY"}</t>
-  </si>
-  <si>
-    <t>T1424303007</t>
-  </si>
-  <si>
     <t>{"type":"Territory2","url":"/services/data/v50.0/sobjects/Territory2/0MIbL00000002UVWAY"}</t>
   </si>
   <si>
@@ -2039,15 +2030,361 @@
     <t>Erro</t>
   </si>
   <si>
-    <t>❌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Territory2Trigger: execution of BeforeInsert
-caused by: System.NullPointerException: Attempt to de-reference a null object
-Class.Territory2CopyParentInfoToChild.copyParentFieldValuesToChildByChildRecord: line 27, column 1
-Class.Territory2TH.beforeInsert: line 20, column 1
-Class.TriggerHandler.run: line 68, column 1
-Trigger.Territory2Trigger: line 2, column 1</t>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuDV4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuF74AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuF84AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuF94AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFA4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFB4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFC4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFD4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFE4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFF4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFG4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFH4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFI4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFJ4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFK4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFL4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFM4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFN4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFO4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFP4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFQ4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFR4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFS4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFT4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFU4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFV4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFW4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFX4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFY4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFZ4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFa4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFb4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFc4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFd4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFe4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFf4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFg4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFh4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFi4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFj4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFk4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFl4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFm4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFn4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFo4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFp4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFq4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFr4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFs4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFt4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFu4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFv4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFw4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFx4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFy4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuFz4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuG04AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuG14AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuG24AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuG34AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuG44AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuG54AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuG64AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuG74AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuG84AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuG94AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGA4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGB4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGC4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGD4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGE4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGF4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGG4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGH4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGI4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGJ4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGK4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGL4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGM4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGN4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGO4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGP4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGQ4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGR4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGS4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGT4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGU4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGV4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGW4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGX4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGY4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGZ4A0</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGa4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGb4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGc4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGd4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGe4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGf4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGg4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGh4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGi4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGj4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGk4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGl4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGm4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGn4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGo4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGp4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGq4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGr4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGs4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGt4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGu4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGv4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGw4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGx4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGy4AK</t>
+  </si>
+  <si>
+    <t>0MIHZ000000PuGz4AK</t>
   </si>
 </sst>
 </file>
@@ -6311,9 +6648,6 @@
       <c r="N54" t="s">
         <v>43</v>
       </c>
-      <c r="O54" t="s">
-        <v>332</v>
-      </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
@@ -6321,10 +6655,10 @@
         <v>0</v>
       </c>
       <c r="R54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T54" t="s">
         <v>45</v>
@@ -6344,31 +6678,16 @@
       <c r="Y54" t="s">
         <v>185</v>
       </c>
-      <c r="Z54" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>336</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>337</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>338</v>
-      </c>
       <c r="AF54" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B55" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C55" t="s">
         <v>35</v>
@@ -6395,7 +6714,7 @@
         <v>40</v>
       </c>
       <c r="L55" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M55" t="s">
         <v>54</v>
@@ -6410,10 +6729,10 @@
         <v>0</v>
       </c>
       <c r="R55" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="S55" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="T55" t="s">
         <v>65</v>
@@ -6434,27 +6753,27 @@
         <v>165</v>
       </c>
       <c r="AA55" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AB55" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AC55" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AD55" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AF55" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B56" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C56" t="s">
         <v>35</v>
@@ -6481,7 +6800,7 @@
         <v>40</v>
       </c>
       <c r="L56" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M56" t="s">
         <v>54</v>
@@ -6496,10 +6815,10 @@
         <v>0</v>
       </c>
       <c r="R56" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="S56" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="T56" t="s">
         <v>81</v>
@@ -6520,18 +6839,18 @@
         <v>108</v>
       </c>
       <c r="AF56" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AG56" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B57" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C57" t="s">
         <v>35</v>
@@ -6558,7 +6877,7 @@
         <v>40</v>
       </c>
       <c r="L57" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M57" t="s">
         <v>54</v>
@@ -6573,10 +6892,10 @@
         <v>0</v>
       </c>
       <c r="R57" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="S57" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="T57" t="s">
         <v>45</v>
@@ -6597,15 +6916,15 @@
         <v>193</v>
       </c>
       <c r="AF57" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B58" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C58" t="s">
         <v>35</v>
@@ -6632,7 +6951,7 @@
         <v>40</v>
       </c>
       <c r="L58" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M58" t="s">
         <v>54</v>
@@ -6647,10 +6966,10 @@
         <v>0</v>
       </c>
       <c r="R58" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="S58" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="T58" t="s">
         <v>65</v>
@@ -6671,18 +6990,18 @@
         <v>155</v>
       </c>
       <c r="AF58" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AG58" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B59" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C59" t="s">
         <v>35</v>
@@ -6709,7 +7028,7 @@
         <v>40</v>
       </c>
       <c r="L59" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M59" t="s">
         <v>54</v>
@@ -6724,10 +7043,10 @@
         <v>0</v>
       </c>
       <c r="R59" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="S59" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="T59" t="s">
         <v>65</v>
@@ -6748,15 +7067,15 @@
         <v>68</v>
       </c>
       <c r="AF59" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B60" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C60" t="s">
         <v>35</v>
@@ -6783,7 +7102,7 @@
         <v>40</v>
       </c>
       <c r="L60" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M60" t="s">
         <v>54</v>
@@ -6798,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="R60" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="S60" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="T60" t="s">
         <v>81</v>
@@ -6822,18 +7141,18 @@
         <v>108</v>
       </c>
       <c r="AF60" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AG60" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C61" t="s">
         <v>35</v>
@@ -6860,7 +7179,7 @@
         <v>40</v>
       </c>
       <c r="L61" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M61" t="s">
         <v>54</v>
@@ -6875,10 +7194,10 @@
         <v>0</v>
       </c>
       <c r="R61" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="S61" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="T61" t="s">
         <v>65</v>
@@ -6899,15 +7218,15 @@
         <v>92</v>
       </c>
       <c r="AF61" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B62" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C62" t="s">
         <v>35</v>
@@ -6934,7 +7253,7 @@
         <v>40</v>
       </c>
       <c r="L62" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M62" t="s">
         <v>54</v>
@@ -6949,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="R62" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="T62" t="s">
         <v>65</v>
@@ -6970,30 +7289,30 @@
         <v>155</v>
       </c>
       <c r="AA62" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AB62" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AC62" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AD62" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AF62" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AG62" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B63" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C63" t="s">
         <v>35</v>
@@ -7020,7 +7339,7 @@
         <v>40</v>
       </c>
       <c r="L63" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M63" t="s">
         <v>54</v>
@@ -7035,10 +7354,10 @@
         <v>0</v>
       </c>
       <c r="R63" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="S63" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="T63" t="s">
         <v>45</v>
@@ -7059,15 +7378,15 @@
         <v>193</v>
       </c>
       <c r="AF63" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B64" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C64" t="s">
         <v>35</v>
@@ -7094,7 +7413,7 @@
         <v>40</v>
       </c>
       <c r="L64" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M64" t="s">
         <v>54</v>
@@ -7109,10 +7428,10 @@
         <v>0</v>
       </c>
       <c r="R64" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S64" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="T64" t="s">
         <v>65</v>
@@ -7133,30 +7452,30 @@
         <v>165</v>
       </c>
       <c r="AA64" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AB64" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AC64" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AD64" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF64" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AG64" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B65" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C65" t="s">
         <v>35</v>
@@ -7183,7 +7502,7 @@
         <v>40</v>
       </c>
       <c r="L65" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M65" t="s">
         <v>54</v>
@@ -7219,18 +7538,18 @@
         <v>68</v>
       </c>
       <c r="AF65" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AG65" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B66" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C66" t="s">
         <v>35</v>
@@ -7257,7 +7576,7 @@
         <v>40</v>
       </c>
       <c r="L66" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M66" t="s">
         <v>54</v>
@@ -7272,10 +7591,10 @@
         <v>0</v>
       </c>
       <c r="R66" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="S66" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="T66" t="s">
         <v>81</v>
@@ -7296,15 +7615,15 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B67" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C67" t="s">
         <v>35</v>
@@ -7331,7 +7650,7 @@
         <v>40</v>
       </c>
       <c r="L67" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M67" t="s">
         <v>54</v>
@@ -7346,10 +7665,10 @@
         <v>0</v>
       </c>
       <c r="R67" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="S67" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="T67" t="s">
         <v>65</v>
@@ -7370,15 +7689,15 @@
         <v>92</v>
       </c>
       <c r="AF67" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B68" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C68" t="s">
         <v>35</v>
@@ -7405,7 +7724,7 @@
         <v>40</v>
       </c>
       <c r="L68" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M68" t="s">
         <v>54</v>
@@ -7420,10 +7739,10 @@
         <v>0</v>
       </c>
       <c r="R68" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="S68" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="T68" t="s">
         <v>45</v>
@@ -7444,15 +7763,15 @@
         <v>57</v>
       </c>
       <c r="AF68" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B69" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C69" t="s">
         <v>35</v>
@@ -7479,7 +7798,7 @@
         <v>40</v>
       </c>
       <c r="L69" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M69" t="s">
         <v>54</v>
@@ -7494,10 +7813,10 @@
         <v>0</v>
       </c>
       <c r="R69" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="S69" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="T69" t="s">
         <v>81</v>
@@ -7518,27 +7837,27 @@
         <v>108</v>
       </c>
       <c r="AA69" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AB69" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AC69" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AD69" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AF69" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AG69" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B70" t="s">
         <v>180</v>
@@ -7550,7 +7869,7 @@
         <v>36</v>
       </c>
       <c r="E70" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -7568,7 +7887,7 @@
         <v>40</v>
       </c>
       <c r="L70" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M70" t="s">
         <v>54</v>
@@ -7583,10 +7902,10 @@
         <v>0</v>
       </c>
       <c r="R70" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="S70" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="T70" t="s">
         <v>125</v>
@@ -7612,10 +7931,10 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B71" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C71" t="s">
         <v>35</v>
@@ -7642,7 +7961,7 @@
         <v>40</v>
       </c>
       <c r="L71" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M71" t="s">
         <v>54</v>
@@ -7657,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="R71" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="S71" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="T71" t="s">
         <v>81</v>
@@ -7681,15 +8000,15 @@
         <v>84</v>
       </c>
       <c r="AF71" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B72" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C72" t="s">
         <v>35</v>
@@ -7716,7 +8035,7 @@
         <v>40</v>
       </c>
       <c r="L72" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M72" t="s">
         <v>54</v>
@@ -7731,10 +8050,10 @@
         <v>0</v>
       </c>
       <c r="R72" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="S72" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="T72" t="s">
         <v>81</v>
@@ -7755,15 +8074,15 @@
         <v>108</v>
       </c>
       <c r="AF72" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B73" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C73" t="s">
         <v>35</v>
@@ -7790,7 +8109,7 @@
         <v>40</v>
       </c>
       <c r="L73" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M73" t="s">
         <v>54</v>
@@ -7805,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="R73" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="S73" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T73" t="s">
         <v>45</v>
@@ -7829,15 +8148,15 @@
         <v>100</v>
       </c>
       <c r="AF73" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B74" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C74" t="s">
         <v>35</v>
@@ -7864,7 +8183,7 @@
         <v>40</v>
       </c>
       <c r="L74" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M74" t="s">
         <v>54</v>
@@ -7879,10 +8198,10 @@
         <v>0</v>
       </c>
       <c r="R74" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="S74" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="T74" t="s">
         <v>45</v>
@@ -7903,15 +8222,15 @@
         <v>193</v>
       </c>
       <c r="AF74" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B75" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C75" t="s">
         <v>35</v>
@@ -7938,7 +8257,7 @@
         <v>40</v>
       </c>
       <c r="L75" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M75" t="s">
         <v>54</v>
@@ -7953,10 +8272,10 @@
         <v>0</v>
       </c>
       <c r="R75" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="S75" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="T75" t="s">
         <v>81</v>
@@ -7977,15 +8296,15 @@
         <v>138</v>
       </c>
       <c r="AF75" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B76" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C76" t="s">
         <v>35</v>
@@ -8012,7 +8331,7 @@
         <v>40</v>
       </c>
       <c r="L76" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M76" t="s">
         <v>54</v>
@@ -8027,10 +8346,10 @@
         <v>0</v>
       </c>
       <c r="R76" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="S76" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="T76" t="s">
         <v>81</v>
@@ -8051,15 +8370,15 @@
         <v>138</v>
       </c>
       <c r="AF76" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B77" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C77" t="s">
         <v>35</v>
@@ -8086,7 +8405,7 @@
         <v>40</v>
       </c>
       <c r="L77" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M77" t="s">
         <v>54</v>
@@ -8101,10 +8420,10 @@
         <v>0</v>
       </c>
       <c r="R77" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="S77" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="T77" t="s">
         <v>65</v>
@@ -8125,15 +8444,15 @@
         <v>68</v>
       </c>
       <c r="AF77" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B78" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C78" t="s">
         <v>35</v>
@@ -8160,7 +8479,7 @@
         <v>40</v>
       </c>
       <c r="L78" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="M78" t="s">
         <v>54</v>
@@ -8175,10 +8494,10 @@
         <v>0</v>
       </c>
       <c r="R78" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="S78" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="T78" t="s">
         <v>65</v>
@@ -8199,15 +8518,15 @@
         <v>165</v>
       </c>
       <c r="AF78" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B79" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C79" t="s">
         <v>35</v>
@@ -8234,7 +8553,7 @@
         <v>40</v>
       </c>
       <c r="L79" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M79" t="s">
         <v>54</v>
@@ -8273,15 +8592,15 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B80" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C80" t="s">
         <v>35</v>
@@ -8308,7 +8627,7 @@
         <v>40</v>
       </c>
       <c r="L80" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M80" t="s">
         <v>54</v>
@@ -8323,10 +8642,10 @@
         <v>0</v>
       </c>
       <c r="R80" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="S80" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="T80" t="s">
         <v>65</v>
@@ -8347,15 +8666,15 @@
         <v>165</v>
       </c>
       <c r="AF80" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B81" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C81" t="s">
         <v>35</v>
@@ -8382,7 +8701,7 @@
         <v>40</v>
       </c>
       <c r="L81" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M81" t="s">
         <v>54</v>
@@ -8397,10 +8716,10 @@
         <v>0</v>
       </c>
       <c r="R81" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="S81" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="T81" t="s">
         <v>65</v>
@@ -8421,15 +8740,15 @@
         <v>155</v>
       </c>
       <c r="AF81" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B82" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C82" t="s">
         <v>35</v>
@@ -8456,7 +8775,7 @@
         <v>40</v>
       </c>
       <c r="L82" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M82" t="s">
         <v>54</v>
@@ -8471,10 +8790,10 @@
         <v>0</v>
       </c>
       <c r="R82" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="S82" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="T82" t="s">
         <v>65</v>
@@ -8495,15 +8814,15 @@
         <v>155</v>
       </c>
       <c r="AF82" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B83" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C83" t="s">
         <v>35</v>
@@ -8530,7 +8849,7 @@
         <v>40</v>
       </c>
       <c r="L83" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M83" t="s">
         <v>54</v>
@@ -8545,10 +8864,10 @@
         <v>0</v>
       </c>
       <c r="R83" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="S83" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="T83" t="s">
         <v>45</v>
@@ -8569,15 +8888,15 @@
         <v>185</v>
       </c>
       <c r="AF83" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B84" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C84" t="s">
         <v>35</v>
@@ -8604,7 +8923,7 @@
         <v>40</v>
       </c>
       <c r="L84" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M84" t="s">
         <v>54</v>
@@ -8619,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="R84" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="S84" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="T84" t="s">
         <v>65</v>
@@ -8643,15 +8962,15 @@
         <v>165</v>
       </c>
       <c r="AF84" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B85" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C85" t="s">
         <v>35</v>
@@ -8678,7 +8997,7 @@
         <v>40</v>
       </c>
       <c r="L85" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="M85" t="s">
         <v>54</v>
@@ -8693,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="R85" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="S85" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="T85" t="s">
         <v>65</v>
@@ -8717,15 +9036,15 @@
         <v>155</v>
       </c>
       <c r="AF85" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B86" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C86" t="s">
         <v>35</v>
@@ -8752,7 +9071,7 @@
         <v>40</v>
       </c>
       <c r="L86" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M86" t="s">
         <v>54</v>
@@ -8788,18 +9107,18 @@
         <v>138</v>
       </c>
       <c r="AF86" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AG86" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B87" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C87" t="s">
         <v>35</v>
@@ -8826,7 +9145,7 @@
         <v>40</v>
       </c>
       <c r="L87" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M87" t="s">
         <v>54</v>
@@ -8841,10 +9160,10 @@
         <v>0</v>
       </c>
       <c r="R87" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="S87" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="T87" t="s">
         <v>65</v>
@@ -8865,15 +9184,15 @@
         <v>165</v>
       </c>
       <c r="AF87" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B88" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C88" t="s">
         <v>35</v>
@@ -8900,7 +9219,7 @@
         <v>40</v>
       </c>
       <c r="L88" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M88" t="s">
         <v>54</v>
@@ -8915,10 +9234,10 @@
         <v>0</v>
       </c>
       <c r="R88" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="S88" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T88" t="s">
         <v>65</v>
@@ -8939,15 +9258,15 @@
         <v>165</v>
       </c>
       <c r="AF88" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B89" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C89" t="s">
         <v>35</v>
@@ -8974,7 +9293,7 @@
         <v>40</v>
       </c>
       <c r="L89" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="M89" t="s">
         <v>54</v>
@@ -8989,10 +9308,10 @@
         <v>0</v>
       </c>
       <c r="R89" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="S89" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="T89" t="s">
         <v>65</v>
@@ -9013,15 +9332,15 @@
         <v>155</v>
       </c>
       <c r="AF89" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B90" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C90" t="s">
         <v>35</v>
@@ -9048,7 +9367,7 @@
         <v>40</v>
       </c>
       <c r="L90" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M90" t="s">
         <v>54</v>
@@ -9063,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="R90" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="T90" t="s">
         <v>65</v>
@@ -9084,18 +9403,18 @@
         <v>155</v>
       </c>
       <c r="AF90" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="AG90" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B91" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C91" t="s">
         <v>35</v>
@@ -9122,7 +9441,7 @@
         <v>40</v>
       </c>
       <c r="L91" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M91" t="s">
         <v>54</v>
@@ -9137,10 +9456,10 @@
         <v>0</v>
       </c>
       <c r="R91" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="S91" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="T91" t="s">
         <v>65</v>
@@ -9161,18 +9480,18 @@
         <v>155</v>
       </c>
       <c r="AF91" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AG91" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B92" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C92" t="s">
         <v>35</v>
@@ -9181,7 +9500,7 @@
         <v>36</v>
       </c>
       <c r="E92" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -9199,7 +9518,7 @@
         <v>40</v>
       </c>
       <c r="L92" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M92" t="s">
         <v>54</v>
@@ -9217,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="R92" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="S92" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="T92" t="s">
         <v>125</v>
@@ -9253,15 +9572,15 @@
         <v>180</v>
       </c>
       <c r="AF92" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B93" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C93" t="s">
         <v>35</v>
@@ -9288,7 +9607,7 @@
         <v>40</v>
       </c>
       <c r="L93" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M93" t="s">
         <v>54</v>
@@ -9303,10 +9622,10 @@
         <v>0</v>
       </c>
       <c r="R93" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="S93" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="T93" t="s">
         <v>45</v>
@@ -9327,18 +9646,18 @@
         <v>193</v>
       </c>
       <c r="AF93" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AG93" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B94" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C94" t="s">
         <v>35</v>
@@ -9365,7 +9684,7 @@
         <v>40</v>
       </c>
       <c r="L94" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M94" t="s">
         <v>54</v>
@@ -9380,10 +9699,10 @@
         <v>0</v>
       </c>
       <c r="R94" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="S94" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="T94" t="s">
         <v>65</v>
@@ -9404,15 +9723,15 @@
         <v>155</v>
       </c>
       <c r="AF94" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B95" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C95" t="s">
         <v>35</v>
@@ -9439,7 +9758,7 @@
         <v>40</v>
       </c>
       <c r="L95" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M95" t="s">
         <v>54</v>
@@ -9454,10 +9773,10 @@
         <v>0</v>
       </c>
       <c r="R95" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="S95" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="T95" t="s">
         <v>81</v>
@@ -9478,15 +9797,15 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B96" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C96" t="s">
         <v>35</v>
@@ -9513,7 +9832,7 @@
         <v>40</v>
       </c>
       <c r="L96" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M96" t="s">
         <v>54</v>
@@ -9528,10 +9847,10 @@
         <v>0</v>
       </c>
       <c r="R96" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="S96" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="T96" t="s">
         <v>81</v>
@@ -9552,18 +9871,18 @@
         <v>138</v>
       </c>
       <c r="AF96" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AG96" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B97" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C97" t="s">
         <v>35</v>
@@ -9590,7 +9909,7 @@
         <v>40</v>
       </c>
       <c r="L97" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M97" t="s">
         <v>54</v>
@@ -9605,10 +9924,10 @@
         <v>0</v>
       </c>
       <c r="R97" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="S97" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="T97" t="s">
         <v>81</v>
@@ -9629,15 +9948,15 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B98" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C98" t="s">
         <v>35</v>
@@ -9664,7 +9983,7 @@
         <v>40</v>
       </c>
       <c r="L98" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="M98" t="s">
         <v>54</v>
@@ -9679,10 +9998,10 @@
         <v>0</v>
       </c>
       <c r="R98" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="S98" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="T98" t="s">
         <v>65</v>
@@ -9703,15 +10022,15 @@
         <v>92</v>
       </c>
       <c r="AF98" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B99" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C99" t="s">
         <v>35</v>
@@ -9738,7 +10057,7 @@
         <v>40</v>
       </c>
       <c r="L99" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="M99" t="s">
         <v>54</v>
@@ -9753,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="R99" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="S99" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="T99" t="s">
         <v>65</v>
@@ -9777,18 +10096,18 @@
         <v>92</v>
       </c>
       <c r="AF99" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="AG99" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B100" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C100" t="s">
         <v>35</v>
@@ -9815,7 +10134,7 @@
         <v>40</v>
       </c>
       <c r="L100" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="M100" t="s">
         <v>54</v>
@@ -9830,10 +10149,10 @@
         <v>0</v>
       </c>
       <c r="R100" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="S100" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="T100" t="s">
         <v>65</v>
@@ -9854,15 +10173,15 @@
         <v>92</v>
       </c>
       <c r="AF100" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B101" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C101" t="s">
         <v>35</v>
@@ -9889,7 +10208,7 @@
         <v>40</v>
       </c>
       <c r="L101" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="M101" t="s">
         <v>54</v>
@@ -9904,10 +10223,10 @@
         <v>0</v>
       </c>
       <c r="R101" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="S101" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="T101" t="s">
         <v>65</v>
@@ -9928,15 +10247,15 @@
         <v>165</v>
       </c>
       <c r="AF101" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B102" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C102" t="s">
         <v>35</v>
@@ -9963,7 +10282,7 @@
         <v>40</v>
       </c>
       <c r="L102" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M102" t="s">
         <v>54</v>
@@ -9978,10 +10297,10 @@
         <v>0</v>
       </c>
       <c r="R102" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="S102" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="T102" t="s">
         <v>45</v>
@@ -10002,15 +10321,15 @@
         <v>193</v>
       </c>
       <c r="AF102" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B103" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C103" t="s">
         <v>35</v>
@@ -10037,7 +10356,7 @@
         <v>40</v>
       </c>
       <c r="L103" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="M103" t="s">
         <v>54</v>
@@ -10052,10 +10371,10 @@
         <v>0</v>
       </c>
       <c r="R103" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="S103" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="T103" t="s">
         <v>81</v>
@@ -10076,15 +10395,15 @@
         <v>138</v>
       </c>
       <c r="AF103" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B104" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C104" t="s">
         <v>35</v>
@@ -10111,7 +10430,7 @@
         <v>40</v>
       </c>
       <c r="L104" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="M104" t="s">
         <v>54</v>
@@ -10126,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="R104" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="S104" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="T104" t="s">
         <v>45</v>
@@ -10150,15 +10469,15 @@
         <v>193</v>
       </c>
       <c r="AF104" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B105" t="s">
-        <v>337</v>
+        <v>594</v>
       </c>
       <c r="C105" t="s">
         <v>35</v>
@@ -10185,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="L105" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="M105" t="s">
         <v>54</v>
@@ -10197,13 +10516,13 @@
         <v>1</v>
       </c>
       <c r="Q105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R105" t="s">
-        <v>338</v>
+        <v>596</v>
       </c>
       <c r="S105" t="s">
-        <v>338</v>
+        <v>596</v>
       </c>
       <c r="T105" t="s">
         <v>45</v>
@@ -10224,15 +10543,15 @@
         <v>185</v>
       </c>
       <c r="AF105" t="s">
-        <v>335</v>
+        <v>597</v>
       </c>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B106" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C106" t="s">
         <v>35</v>
@@ -10259,7 +10578,7 @@
         <v>40</v>
       </c>
       <c r="L106" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M106" t="s">
         <v>54</v>
@@ -10274,10 +10593,10 @@
         <v>0</v>
       </c>
       <c r="R106" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="S106" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="T106" t="s">
         <v>45</v>
@@ -10298,15 +10617,15 @@
         <v>193</v>
       </c>
       <c r="AF106" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B107" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C107" t="s">
         <v>35</v>
@@ -10333,7 +10652,7 @@
         <v>40</v>
       </c>
       <c r="L107" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M107" t="s">
         <v>54</v>
@@ -10348,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="R107" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="S107" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="T107" t="s">
         <v>45</v>
@@ -10372,15 +10691,15 @@
         <v>193</v>
       </c>
       <c r="AF107" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B108" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C108" t="s">
         <v>35</v>
@@ -10407,7 +10726,7 @@
         <v>40</v>
       </c>
       <c r="L108" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="M108" t="s">
         <v>54</v>
@@ -10422,10 +10741,10 @@
         <v>0</v>
       </c>
       <c r="R108" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="S108" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="T108" t="s">
         <v>65</v>
@@ -10446,15 +10765,15 @@
         <v>165</v>
       </c>
       <c r="AF108" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B109" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C109" t="s">
         <v>35</v>
@@ -10481,7 +10800,7 @@
         <v>40</v>
       </c>
       <c r="L109" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="M109" t="s">
         <v>54</v>
@@ -10496,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="R109" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="T109" t="s">
         <v>45</v>
@@ -10517,18 +10836,18 @@
         <v>185</v>
       </c>
       <c r="AF109" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AG109" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B110" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C110" t="s">
         <v>35</v>
@@ -10555,7 +10874,7 @@
         <v>40</v>
       </c>
       <c r="L110" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="M110" t="s">
         <v>54</v>
@@ -10570,10 +10889,10 @@
         <v>0</v>
       </c>
       <c r="R110" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="S110" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="T110" t="s">
         <v>45</v>
@@ -10594,15 +10913,15 @@
         <v>57</v>
       </c>
       <c r="AF110" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B111" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C111" t="s">
         <v>35</v>
@@ -10629,7 +10948,7 @@
         <v>40</v>
       </c>
       <c r="L111" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M111" t="s">
         <v>54</v>
@@ -10644,10 +10963,10 @@
         <v>0</v>
       </c>
       <c r="R111" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="S111" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="T111" t="s">
         <v>45</v>
@@ -10668,15 +10987,15 @@
         <v>185</v>
       </c>
       <c r="AF111" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B112" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C112" t="s">
         <v>35</v>
@@ -10703,7 +11022,7 @@
         <v>40</v>
       </c>
       <c r="L112" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="M112" t="s">
         <v>54</v>
@@ -10718,10 +11037,10 @@
         <v>0</v>
       </c>
       <c r="R112" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="S112" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="T112" t="s">
         <v>65</v>
@@ -10742,15 +11061,15 @@
         <v>68</v>
       </c>
       <c r="AF112" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B113" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C113" t="s">
         <v>35</v>
@@ -10777,7 +11096,7 @@
         <v>40</v>
       </c>
       <c r="L113" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M113" t="s">
         <v>54</v>
@@ -10792,10 +11111,10 @@
         <v>0</v>
       </c>
       <c r="R113" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="S113" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="T113" t="s">
         <v>65</v>
@@ -10816,18 +11135,18 @@
         <v>155</v>
       </c>
       <c r="AF113" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AG113" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B114" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C114" t="s">
         <v>35</v>
@@ -10854,7 +11173,7 @@
         <v>40</v>
       </c>
       <c r="L114" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="M114" t="s">
         <v>54</v>
@@ -10869,10 +11188,10 @@
         <v>0</v>
       </c>
       <c r="R114" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="S114" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="T114" t="s">
         <v>45</v>
@@ -10893,15 +11212,15 @@
         <v>100</v>
       </c>
       <c r="AF114" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B115" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C115" t="s">
         <v>35</v>
@@ -10928,7 +11247,7 @@
         <v>40</v>
       </c>
       <c r="L115" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="M115" t="s">
         <v>54</v>
@@ -10943,10 +11262,10 @@
         <v>0</v>
       </c>
       <c r="R115" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="S115" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="T115" t="s">
         <v>45</v>
@@ -10967,18 +11286,18 @@
         <v>185</v>
       </c>
       <c r="AF115" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AG115" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B116" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C116" t="s">
         <v>35</v>
@@ -11005,7 +11324,7 @@
         <v>40</v>
       </c>
       <c r="L116" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M116" t="s">
         <v>54</v>
@@ -11041,18 +11360,18 @@
         <v>100</v>
       </c>
       <c r="AF116" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AG116" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B117" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C117" t="s">
         <v>35</v>
@@ -11079,7 +11398,7 @@
         <v>40</v>
       </c>
       <c r="L117" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="M117" t="s">
         <v>54</v>
@@ -11094,10 +11413,10 @@
         <v>0</v>
       </c>
       <c r="R117" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="S117" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="T117" t="s">
         <v>81</v>
@@ -11118,15 +11437,15 @@
         <v>138</v>
       </c>
       <c r="AF117" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B118" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C118" t="s">
         <v>35</v>
@@ -11153,7 +11472,7 @@
         <v>40</v>
       </c>
       <c r="L118" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="M118" t="s">
         <v>54</v>
@@ -11168,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="R118" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="S118" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="T118" t="s">
         <v>65</v>
@@ -11192,15 +11511,15 @@
         <v>68</v>
       </c>
       <c r="AF118" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B119" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C119" t="s">
         <v>35</v>
@@ -11227,7 +11546,7 @@
         <v>40</v>
       </c>
       <c r="L119" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M119" t="s">
         <v>54</v>
@@ -11242,10 +11561,10 @@
         <v>0</v>
       </c>
       <c r="R119" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="S119" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="T119" t="s">
         <v>81</v>
@@ -11266,10 +11585,10 @@
         <v>84</v>
       </c>
       <c r="AF119" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AG119" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -11285,957 +11604,957 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>672</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>673</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B4" t="s">
         <v>675</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B5" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>675</v>
-      </c>
-      <c r="C3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>675</v>
-      </c>
-      <c r="C4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>675</v>
-      </c>
-      <c r="C5" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>675</v>
-      </c>
-      <c r="C6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>675</v>
-      </c>
-      <c r="C7" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>675</v>
-      </c>
-      <c r="C8" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>675</v>
-      </c>
-      <c r="C9" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>675</v>
-      </c>
-      <c r="C10" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>675</v>
-      </c>
-      <c r="C11" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>675</v>
-      </c>
-      <c r="C12" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B12" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>675</v>
-      </c>
-      <c r="C13" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B13" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>675</v>
-      </c>
-      <c r="C14" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B14" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>675</v>
-      </c>
-      <c r="C15" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B15" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>675</v>
-      </c>
-      <c r="C16" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B16" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>675</v>
-      </c>
-      <c r="C17" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B17" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>675</v>
-      </c>
-      <c r="C18" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B18" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>675</v>
-      </c>
-      <c r="C19" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B19" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>675</v>
-      </c>
-      <c r="C20" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B20" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>675</v>
-      </c>
-      <c r="C21" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B21" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>675</v>
-      </c>
-      <c r="C22" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B22" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>675</v>
-      </c>
-      <c r="C23" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>675</v>
-      </c>
-      <c r="C24" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B24" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>675</v>
-      </c>
-      <c r="C25" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B25" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>675</v>
-      </c>
-      <c r="C26" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B26" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>675</v>
-      </c>
-      <c r="C27" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B27" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>675</v>
-      </c>
-      <c r="C28" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B28" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>675</v>
-      </c>
-      <c r="C29" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B29" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>675</v>
-      </c>
-      <c r="C30" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B30" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>675</v>
-      </c>
-      <c r="C31" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B31" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>675</v>
-      </c>
-      <c r="C32" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B32" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>675</v>
-      </c>
-      <c r="C33" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B33" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>675</v>
-      </c>
-      <c r="C34" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B34" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>675</v>
-      </c>
-      <c r="C35" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B35" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>675</v>
-      </c>
-      <c r="C36" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B36" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>675</v>
-      </c>
-      <c r="C37" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B37" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>675</v>
-      </c>
-      <c r="C38" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B38" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>675</v>
-      </c>
-      <c r="C39" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B39" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>675</v>
-      </c>
-      <c r="C40" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B40" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>675</v>
-      </c>
-      <c r="C41" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B41" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>675</v>
-      </c>
-      <c r="C42" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B42" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>675</v>
-      </c>
-      <c r="C43" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B43" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>675</v>
-      </c>
-      <c r="C44" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B44" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>675</v>
-      </c>
-      <c r="C45" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B45" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>675</v>
-      </c>
-      <c r="C46" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B46" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>675</v>
-      </c>
-      <c r="C47" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B47" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>675</v>
-      </c>
-      <c r="C48" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B48" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>675</v>
-      </c>
-      <c r="C49" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B49" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>675</v>
-      </c>
-      <c r="C50" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B50" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>675</v>
-      </c>
-      <c r="C51" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B51" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>675</v>
-      </c>
-      <c r="C52" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B52" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>675</v>
-      </c>
-      <c r="C53" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B53" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>675</v>
-      </c>
-      <c r="C54" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B54" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>675</v>
-      </c>
-      <c r="C55" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B55" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>675</v>
-      </c>
-      <c r="C56" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B56" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>675</v>
-      </c>
-      <c r="C57" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B57" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>675</v>
-      </c>
-      <c r="C58" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B58" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>675</v>
-      </c>
-      <c r="C59" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B59" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>675</v>
-      </c>
-      <c r="C60" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B60" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>675</v>
-      </c>
-      <c r="C61" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B61" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>675</v>
-      </c>
-      <c r="C62" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B62" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>675</v>
-      </c>
-      <c r="C63" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B63" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>675</v>
-      </c>
-      <c r="C64" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B64" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>675</v>
-      </c>
-      <c r="C65" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B65" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>675</v>
-      </c>
-      <c r="C66" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B66" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>675</v>
-      </c>
-      <c r="C67" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B67" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>675</v>
-      </c>
-      <c r="C68" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B68" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>675</v>
-      </c>
-      <c r="C69" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B69" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>675</v>
-      </c>
-      <c r="C70" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B70" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>675</v>
-      </c>
-      <c r="C71" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B71" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>675</v>
-      </c>
-      <c r="C72" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B72" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>675</v>
-      </c>
-      <c r="C73" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B73" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>675</v>
-      </c>
-      <c r="C74" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B74" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>675</v>
-      </c>
-      <c r="C75" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B75" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>675</v>
-      </c>
-      <c r="C76" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B76" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>675</v>
-      </c>
-      <c r="C77" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B77" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>675</v>
-      </c>
-      <c r="C78" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B78" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>675</v>
-      </c>
-      <c r="C79" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B79" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>675</v>
-      </c>
-      <c r="C80" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B80" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>675</v>
-      </c>
-      <c r="C81" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B81" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>675</v>
-      </c>
-      <c r="C82" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B82" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>675</v>
-      </c>
-      <c r="C83" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B83" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>675</v>
-      </c>
-      <c r="C84" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B84" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>675</v>
-      </c>
-      <c r="C85" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B85" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>675</v>
-      </c>
-      <c r="C86" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B86" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>675</v>
-      </c>
-      <c r="C87" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B87" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>675</v>
-      </c>
-      <c r="C88" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B88" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>675</v>
-      </c>
-      <c r="C89" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B89" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>675</v>
-      </c>
-      <c r="C90" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B90" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>675</v>
-      </c>
-      <c r="C91" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B91" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>675</v>
-      </c>
-      <c r="C92" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B92" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>675</v>
-      </c>
-      <c r="C93" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B93" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>675</v>
-      </c>
-      <c r="C94" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B94" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>675</v>
-      </c>
-      <c r="C95" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B95" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>675</v>
-      </c>
-      <c r="C96" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B96" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>675</v>
-      </c>
-      <c r="C97" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B97" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>675</v>
-      </c>
-      <c r="C98" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B98" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>675</v>
-      </c>
-      <c r="C99" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B99" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>675</v>
-      </c>
-      <c r="C100" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B100" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>675</v>
-      </c>
-      <c r="C101" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B101" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>675</v>
-      </c>
-      <c r="C102" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B102" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>675</v>
-      </c>
-      <c r="C103" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B103" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>675</v>
-      </c>
-      <c r="C104" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B104" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>675</v>
-      </c>
-      <c r="C105" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B105" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>675</v>
-      </c>
-      <c r="C106" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B106" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>675</v>
-      </c>
-      <c r="C107" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B107" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>675</v>
-      </c>
-      <c r="C108" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B108" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>675</v>
-      </c>
-      <c r="C109" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B109" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>675</v>
-      </c>
-      <c r="C110" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B110" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>675</v>
-      </c>
-      <c r="C111" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B111" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>675</v>
-      </c>
-      <c r="C112" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B112" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>675</v>
-      </c>
-      <c r="C113" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B113" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>675</v>
-      </c>
-      <c r="C114" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B114" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>675</v>
-      </c>
-      <c r="C115" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B115" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>675</v>
-      </c>
-      <c r="C116" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B116" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>675</v>
-      </c>
-      <c r="C117" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B117" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>675</v>
-      </c>
-      <c r="C118" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="B118" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>675</v>
-      </c>
-      <c r="C119" t="s">
-        <v>676</v>
+        <v>672</v>
+      </c>
+      <c r="B119" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
